--- a/testData/ad_extract_data.xlsx
+++ b/testData/ad_extract_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +314,6 @@
   </si>
   <si>
     <t>gyr2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S16_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,11 +416,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> test_F06_S16_010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S16_011</t>
+    <t>test_F06_S16_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F06_S16_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_F06_S16_009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1395,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1427,13 +1426,16 @@
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2">
         <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1">
@@ -1441,16 +1443,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -1459,16 +1461,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1483,7 +1485,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1529,7 +1531,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1">
@@ -1549,7 +1551,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1">
@@ -1569,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1">
@@ -1589,7 +1591,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1605,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1622,19 +1624,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -1642,10 +1644,10 @@
     </row>
     <row r="2" spans="1:8" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7">
         <v>10</v>
@@ -1659,15 +1661,15 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7">
         <v>10</v>
@@ -1679,19 +1681,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7">
         <v>10</v>
@@ -1703,19 +1705,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -1727,21 +1729,21 @@
         <v>4</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1786,13 +1788,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ad_extract_data.xlsx
+++ b/testData/ad_extract_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="ad_extract" sheetId="2" r:id="rId1"/>
@@ -896,8 +896,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1132,7 +1132,7 @@
       <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1604,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
